--- a/saref/competency_question.xlsx
+++ b/saref/competency_question.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\projects\llm-query-pipeline\saref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C30330-2A71-40A4-9718-7C247A2626D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F357CFC3-9BBE-46B3-8A69-FA07B40724E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5235" windowWidth="29040" windowHeight="15840" xr2:uid="{BCFFC7D3-2D83-4405-9F83-D9E815DB9F7B}"/>
+    <workbookView xWindow="-26205" yWindow="-4680" windowWidth="21600" windowHeight="11325" xr2:uid="{BCFFC7D3-2D83-4405-9F83-D9E815DB9F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
 &lt;competency question&gt;</t>
   </si>
   <si>
-    <t>Competency Question</t>
-  </si>
-  <si>
     <t>What is the model and Manufacturer of a Device?</t>
   </si>
   <si>
@@ -164,22 +161,25 @@
     <t>Ground Truth SPARQL Query</t>
   </si>
   <si>
+    <t>What is the age of a temperature sensor?</t>
+  </si>
+  <si>
+    <t>Who is the owner of a device?</t>
+  </si>
+  <si>
+    <t>Which property refers the length of a device?</t>
+  </si>
+  <si>
+    <t>what color is a temperature sensor?</t>
+  </si>
+  <si>
+    <t>What is the favourite food of a temperature sensor?</t>
+  </si>
+  <si>
+    <t>NLQ</t>
+  </si>
+  <si>
     <t>Label</t>
-  </si>
-  <si>
-    <t>What is the age of a temperature sensor?</t>
-  </si>
-  <si>
-    <t>Who is the owner of a device?</t>
-  </si>
-  <si>
-    <t>Which property refers the length of a device?</t>
-  </si>
-  <si>
-    <t>what color is a temperature sensor?</t>
-  </si>
-  <si>
-    <t>What is the favourite food of a temperature sensor?</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,24 +568,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -596,10 +596,10 @@
     </row>
     <row r="3" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -618,10 +618,10 @@
     </row>
     <row r="5" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -629,10 +629,10 @@
     </row>
     <row r="6" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -640,10 +640,10 @@
     </row>
     <row r="7" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="8" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -662,10 +662,10 @@
     </row>
     <row r="9" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -673,10 +673,10 @@
     </row>
     <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -703,15 +703,15 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
